--- a/src/main/resources/template/excel/export/GoodsCategoryReport.xlsx
+++ b/src/main/resources/template/excel/export/GoodsCategoryReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21915" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>商品类别查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>类别编号</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -78,6 +74,10 @@
   </si>
   <si>
     <t>${obj.categoryName}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别导出</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +503,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -517,17 +517,17 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -535,10 +535,10 @@
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
